--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1396.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1396.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.467601422713899</v>
+        <v>1.187001824378967</v>
       </c>
       <c r="B1">
-        <v>2.48673957361096</v>
+        <v>2.166004180908203</v>
       </c>
       <c r="C1">
-        <v>2.916534258016588</v>
+        <v>6.333103656768799</v>
       </c>
       <c r="D1">
-        <v>3.363428442587931</v>
+        <v>2.30367374420166</v>
       </c>
       <c r="E1">
-        <v>1.56437582691315</v>
+        <v>1.193690419197083</v>
       </c>
     </row>
   </sheetData>
